--- a/data/income_statement/3digits/total/774_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/774_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>774-Leasing of intellectual property and similar products, except copyrighted works</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>774-Leasing of intellectual property and similar products, except copyrighted works</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>12242.36355</v>
@@ -959,7 +865,7 @@
         <v>28087.34705</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>23558.38830000001</v>
+        <v>23558.3883</v>
       </c>
       <c r="G5" s="47" t="n">
         <v>42344.61798</v>
@@ -982,11 +888,16 @@
       <c r="M5" s="47" t="n">
         <v>717680.0373199999</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="47" t="n">
+        <v>613389.155</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>11269.59901</v>
@@ -1021,11 +932,16 @@
       <c r="M6" s="48" t="n">
         <v>511938.18815</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="48" t="n">
+        <v>447015.304</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>715.0099200000001</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>137989.6651</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>125122.146</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>257.75462</v>
@@ -1094,16 +1015,21 @@
         <v>2930.746</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>78547.78563000001</v>
+        <v>78547.78563</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>67752.18406999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>67752.18407</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>41251.705</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>89.57656000000001</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>7883.77604</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>5713.987</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>88.85493000000001</v>
@@ -1175,13 +1106,18 @@
         <v>27290.20041</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>6488.62521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6488.625210000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>5332.365</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0.72163</v>
@@ -1211,16 +1147,21 @@
         <v>0.64661</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4819.70321</v>
+        <v>4819.703209999999</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>1108.20978</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>361.806</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>286.94105</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>19.816</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>12152.78699</v>
@@ -1289,16 +1235,21 @@
         <v>184195.27222</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>674863.4090600001</v>
+        <v>674863.40906</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>709796.26128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>709796.2612800001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>607675.1679999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>7847.61911</v>
@@ -1316,7 +1267,7 @@
         <v>21166.38947</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>36456.47212999999</v>
+        <v>36456.47213</v>
       </c>
       <c r="I14" s="47" t="n">
         <v>48563.60802</v>
@@ -1325,7 +1276,7 @@
         <v>71779.14666</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>71727.37140999999</v>
+        <v>71727.37141000001</v>
       </c>
       <c r="L14" s="47" t="n">
         <v>328361.47675</v>
@@ -1333,11 +1284,16 @@
       <c r="M14" s="47" t="n">
         <v>280671.07275</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="47" t="n">
+        <v>246692.462</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0.47638</v>
@@ -1370,13 +1326,18 @@
         <v>49110.13676</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>65412.90388000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>65412.90388</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>42632.907</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>662.52328</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>84989.08572</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>40594.131</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>7130.1821</v>
@@ -1450,11 +1416,16 @@
       <c r="M17" s="48" t="n">
         <v>130158.73837</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>163453.144</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>54.43735</v>
@@ -1489,17 +1460,22 @@
       <c r="M18" s="48" t="n">
         <v>110.34478</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>4305.16788</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>6869.68732</v>
+        <v>6869.687319999999</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>11536.85358</v>
@@ -1528,11 +1504,16 @@
       <c r="M19" s="47" t="n">
         <v>429125.18853</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="47" t="n">
+        <v>360982.706</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2716.88208</v>
@@ -1541,7 +1522,7 @@
         <v>3555.53013</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>6228.825790000001</v>
+        <v>6228.82579</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>6510.338470000001</v>
@@ -1553,7 +1534,7 @@
         <v>21578.41874</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>49448.12565</v>
+        <v>49448.12565000001</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>69536.64925</v>
@@ -1567,11 +1548,16 @@
       <c r="M20" s="47" t="n">
         <v>210856.37114</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="47" t="n">
+        <v>145754.901</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>471.64236</v>
@@ -1637,7 +1628,7 @@
         <v>51189.98654</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>65414.33986000001</v>
+        <v>65414.33986</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>89743.77954999999</v>
@@ -1645,11 +1636,16 @@
       <c r="M22" s="48" t="n">
         <v>131540.88744</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>79547.86900000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>2245.23972</v>
@@ -1658,10 +1654,10 @@
         <v>2960.68072</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4720.799099999999</v>
+        <v>4720.7991</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>4676.997520000001</v>
+        <v>4676.99752</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>10401.89572</v>
@@ -1676,7 +1672,7 @@
         <v>18346.66271</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>37292.36797</v>
+        <v>37292.36797000001</v>
       </c>
       <c r="L23" s="48" t="n">
         <v>65009.69379</v>
@@ -1684,20 +1680,25 @@
       <c r="M23" s="48" t="n">
         <v>79315.4837</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="48" t="n">
+        <v>66207.03200000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1588.2858</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3314.157189999999</v>
+        <v>3314.15719</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5308.027789999999</v>
+        <v>5308.02779</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>4668.65495</v>
@@ -1715,7 +1716,7 @@
         <v>25927.80725</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>9761.192979999998</v>
+        <v>9761.19298</v>
       </c>
       <c r="L24" s="47" t="n">
         <v>191748.45897</v>
@@ -1723,11 +1724,16 @@
       <c r="M24" s="47" t="n">
         <v>218268.81739</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="47" t="n">
+        <v>215227.805</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>237.54692</v>
@@ -1760,13 +1766,18 @@
         <v>932667.47272</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>251153.51519</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>251154.23043</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>708685.343</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>49.61002000000001</v>
@@ -1856,7 +1877,7 @@
         <v>97.12992999999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>53.06216</v>
+        <v>53.06216000000001</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>209.32703</v>
@@ -1865,7 +1886,7 @@
         <v>524.71083</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>573.99266</v>
+        <v>573.9926599999999</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>961.96638</v>
@@ -1874,16 +1895,21 @@
         <v>2328.78216</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>46511.56454000001</v>
+        <v>46511.56454</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>47428.52741</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>47429.24265</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>62950.566</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>14781.68678</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>14898.383</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>0</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1688.79692</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>61.548</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>162.04512</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>177853.14233</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>621259.356</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>25.89178</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>9401.36175</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>9515.49</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>256.5614</v>
@@ -2168,7 +2229,7 @@
         <v>513.13432</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>497.5426899999999</v>
+        <v>497.54269</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>1511.6696</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>352004.85778</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>854928.912</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>6.10137</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>648.63374</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>421.645</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>18666.50255</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>4648.739</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>589.66971</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>250.40166</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>402.11962</v>
+        <v>402.1196199999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>468.944</v>
@@ -2342,16 +2423,21 @@
         <v>11582.24693</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>909636.3880299999</v>
+        <v>909636.3880300001</v>
       </c>
       <c r="M40" s="48" t="n">
         <v>216548.66404</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>716646.154</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>0.05837000000000001</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>115551.38774</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>133212.374</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>13.80948</v>
@@ -2495,7 +2596,7 @@
         <v>35.60805999999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>755.24586</v>
+        <v>755.2458600000001</v>
       </c>
       <c r="L44" s="47" t="n">
         <v>47170.23269</v>
@@ -2503,11 +2604,16 @@
       <c r="M44" s="47" t="n">
         <v>43557.11388</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>113620.042</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>13.80948</v>
@@ -2534,7 +2640,7 @@
         <v>35.60805999999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>755.24586</v>
+        <v>755.2458600000001</v>
       </c>
       <c r="L45" s="48" t="n">
         <v>750.43547</v>
@@ -2542,11 +2648,16 @@
       <c r="M45" s="48" t="n">
         <v>43438.54375</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>113400.028</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>118.57013</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>220.014</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1555.46184</v>
@@ -2615,16 +2731,21 @@
         <v>22794.29058</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>50562.19738000001</v>
+        <v>50562.19738</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>73860.36092000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>73861.07616</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-44635.806</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>40.84493</v>
@@ -2659,11 +2780,16 @@
       <c r="M48" s="47" t="n">
         <v>4435.083320000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="47" t="n">
+        <v>6841.585</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1.2244</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>20.712</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>39.62053</v>
@@ -2737,11 +2868,16 @@
       <c r="M50" s="48" t="n">
         <v>4414.37132</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="48" t="n">
+        <v>6841.585</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>79.00256</v>
@@ -2776,11 +2912,16 @@
       <c r="M51" s="47" t="n">
         <v>4498.545450000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="47" t="n">
+        <v>3396.133</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>18.73416</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>160.022</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3.922</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>636.32485</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>388.683</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>75.08055999999999</v>
@@ -2893,11 +3044,16 @@
       <c r="M54" s="48" t="n">
         <v>3843.48644</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="48" t="n">
+        <v>2847.428</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1517.30421</v>
@@ -2930,13 +3086,18 @@
         <v>48560.56378</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>73796.89879000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>73797.61403</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-41190.354</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>303.13697</v>
@@ -2969,13 +3130,18 @@
         <v>20207.48639</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>20822.47949</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>20822.63684</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>21938.987</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>1214.16724</v>
@@ -3008,10 +3174,13 @@
         <v>28353.07739</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>52974.41929999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>52974.97719</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-63129.341</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>9</v>
@@ -3062,10 +3234,13 @@
         <v>34</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>34</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>